--- a/6年6班.xlsx
+++ b/6年6班.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,50 @@
       </c>
       <c r="F4" t="n">
         <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Jobo</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>96</v>
+      </c>
+      <c r="C5" t="n">
+        <v>78</v>
+      </c>
+      <c r="D5" t="n">
+        <v>100</v>
+      </c>
+      <c r="E5" t="n">
+        <v>63</v>
+      </c>
+      <c r="F5" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Tim</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>87</v>
+      </c>
+      <c r="D6" t="n">
+        <v>100</v>
+      </c>
+      <c r="E6" t="n">
+        <v>91</v>
+      </c>
+      <c r="F6" t="n">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
